--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>417002.2066928967</v>
+        <v>436343.4828038226</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914734</v>
+        <v>925399.3994514374</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136533</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4840571.114000474</v>
+        <v>5670696.135514803</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +741,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.87161743162454</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.87161743162454</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>78.23068545231035</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>32.45190010589728</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1330,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1452,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.1298810789587</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7904504476822691</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.88091821707973</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>38.17361170908589</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.38353541244602</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>19.98690331864569</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>176.8004988171164</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.22041616487701</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,10 +2995,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3032,13 +3032,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.9993436125</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.265316057196634</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.88143347497289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>50.25707871510754</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,52 +3430,52 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,25 +3545,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>98.09531059045651</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3645,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>34.66067414728059</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3740,67 +3740,67 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>147.9845033927267</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S44" t="n">
-        <v>38.87161743162455</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,25 +4059,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>44.13217237922859</v>
+        <v>62.07749986335751</v>
       </c>
       <c r="F45" t="n">
-        <v>38.87161743162454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.790450447682255</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.5286895169144</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C2" t="n">
-        <v>131.9507376187037</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D2" t="n">
-        <v>131.9507376187037</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E2" t="n">
-        <v>87.37278572049297</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F2" t="n">
-        <v>42.79483382228227</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G2" t="n">
-        <v>42.79483382228227</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.5286895169144</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>131.9507376187037</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>87.37278572049297</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>42.79483382228227</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>90.91227510121089</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>87.37278572049297</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>42.79483382228227</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.9507376187037</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C9" t="n">
-        <v>131.9507376187037</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="E9" t="n">
-        <v>131.9507376187037</v>
+        <v>395.2145629923111</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.9507376187037</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.48491238239833</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>137.2644294849704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4370741486873</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>166.4370741486873</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.4370741486873</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C12" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M12" t="n">
-        <v>134.6031257566472</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>134.6031257566472</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X12" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.68647758675968</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>166.4370741486873</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5286895169144</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E15" t="n">
-        <v>131.9507376187037</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>87.37278572049297</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>42.79483382228227</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>132.8378388614781</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>831.6027301783547</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>137.2644294849704</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.68647758675968</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>166.4370741486873</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48.10852568854899</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C18" t="n">
-        <v>48.10852568854899</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D18" t="n">
-        <v>48.10852568854899</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E18" t="n">
-        <v>48.10852568854899</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F18" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.10852568854899</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>58.59447950954984</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="22">
@@ -5932,16 +5932,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>119.4125842604187</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.4125842604187</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6172,7 +6172,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>467.0948956420016</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>292.6418663608746</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>467.0948956420016</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>467.0948956420016</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>467.0948956420016</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>467.0948956420016</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>467.0948956420016</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6549,7 +6549,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>327.2640844659515</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>327.2640844659515</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>119.5037857009976</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>877.0247885897328</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6962,7 +6962,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
         <v>749.627473042513</v>
@@ -6971,16 +6971,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>118.3673154238052</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="40">
@@ -7318,7 +7318,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>109.5807722530562</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>109.5807722530562</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>176.5286895169144</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S44" t="n">
-        <v>137.2644294849704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.9507376187037</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C45" t="n">
-        <v>131.9507376187037</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D45" t="n">
-        <v>131.9507376187037</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E45" t="n">
-        <v>87.37278572049297</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>48.10852568854899</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>48.10852568854899</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>48.10852568854899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>47.22142444577459</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>90.91227510121089</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>134.6031257566472</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>131.9507376187037</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>131.9507376187037</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>131.9507376187037</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>176.3234617176304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,19 +9483,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,22 +9720,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>182.3308283893217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>321.1407193917789</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>300.6031846841426</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,7 +22592,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,25 +22629,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.8110783456798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22726,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6615662182428</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,22 +22869,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>79.41439500309059</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23039,7 +23039,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,13 +23066,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>112.6173122874866</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,13 +23151,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23218,22 +23218,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>285.5285789088086</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>377.9951275246317</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23340,19 +23340,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>142.8645164699222</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5949713533262</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,7 +23622,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>40.55329002487912</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.930990287424243</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>310.5938838986874</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,31 +23808,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.041529734255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,13 +23932,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23947,10 +23947,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,22 +24011,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>198.920084420089</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24060,16 +24060,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>74.06183252741057</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,19 +24206,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.14964823742132</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24412,10 +24412,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,10 +24573,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>205.9544787623291</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>28.88219696018791</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,16 +24683,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24725,22 +24725,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>67.31276748499033</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>37.29528213497613</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24807,22 +24807,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24920,13 +24920,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>15.53384003736738</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>26.25440111315061</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25157,7 +25157,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25202,16 +25202,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>219.8305335069347</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.6517501748945</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25394,16 +25394,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,25 +25433,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>46.97390180292737</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,10 +25521,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>171.1123110561969</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25628,13 +25628,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D41" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,7 +25679,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>84.81608375669853</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,16 +25910,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S44" t="n">
-        <v>170.1484521546208</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,25 +25947,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>113.5129080761724</v>
+        <v>95.56758059204344</v>
       </c>
       <c r="F45" t="n">
-        <v>106.1975949617593</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,7 +26004,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352730.2806797033</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352730.2806797033</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352730.2806797033</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477179</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490412.1637477179</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89664.75401339906</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="C2" t="n">
-        <v>89664.75401339906</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="D2" t="n">
-        <v>89664.75401339901</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>89664.75401339903</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="F2" t="n">
-        <v>89664.75401339903</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="G2" t="n">
-        <v>89664.75401339907</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="H2" t="n">
         <v>124620.5043984993</v>
@@ -26353,7 +26353,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="P2" t="n">
-        <v>89664.75401339908</v>
+        <v>124620.5043984993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999088</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25694.71408478293</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>25694.71408478293</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>25694.71408478293</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>25694.71408478293</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="F4" t="n">
-        <v>25694.71408478293</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>25694.71408478293</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="J4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>25694.71408478293</v>
+        <v>33649.8467842577</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12869.49784371481</v>
+        <v>-38080.04268106784</v>
       </c>
       <c r="C6" t="n">
-        <v>27659.20384795903</v>
+        <v>42689.38885047993</v>
       </c>
       <c r="D6" t="n">
-        <v>27659.20384795898</v>
+        <v>42689.38885047989</v>
       </c>
       <c r="E6" t="n">
-        <v>61286.803847959</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="F6" t="n">
-        <v>61286.803847959</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="G6" t="n">
-        <v>61286.80384795904</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="H6" t="n">
-        <v>20823.93828939149</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="I6" t="n">
-        <v>73944.50525971655</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="J6" t="n">
-        <v>62397.58714972566</v>
+        <v>13257.04625137367</v>
       </c>
       <c r="K6" t="n">
-        <v>73944.5052597165</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="L6" t="n">
-        <v>73944.50525971653</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="M6" t="n">
-        <v>73944.50525971649</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="N6" t="n">
-        <v>73944.50525971655</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="O6" t="n">
-        <v>73944.50525971653</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="P6" t="n">
-        <v>61286.80384795905</v>
+        <v>76316.98885047992</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>42.34905430330019</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37631,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.34905430330016</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
